--- a/2024/shuffle-architecute/Teste10/content/results/metrics_4_4.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_4_4.xlsx
@@ -488,445 +488,445 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_0</t>
+          <t>model_4_4_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9919740243550825</v>
+        <v>0.9387590813314061</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7562326876339791</v>
+        <v>0.7678720888640231</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9965318688283249</v>
+        <v>0.8145740782489106</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9978423750276876</v>
+        <v>0.3597164083309318</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9976367600679908</v>
+        <v>0.5033470580262256</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03368330374360085</v>
+        <v>0.25701504945755</v>
       </c>
       <c r="H2" t="n">
-        <v>1.630073070526123</v>
+        <v>1.552240371704102</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005476165097206831</v>
+        <v>0.163902536034584</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01735560409724712</v>
+        <v>1.439428210258484</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01141589321196079</v>
+        <v>0.8016653060913086</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_1</t>
+          <t>model_4_4_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9932752883469117</v>
+        <v>0.9387941415313941</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7548280677698296</v>
+        <v>0.7678331332219501</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9945670462605044</v>
+        <v>0.8141575757927771</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9980437233069163</v>
+        <v>0.360603703026899</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9974832802669731</v>
+        <v>0.5038507915483645</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02822217717766762</v>
+        <v>0.2568678557872772</v>
       </c>
       <c r="H3" t="n">
-        <v>1.639465808868408</v>
+        <v>1.55250096321106</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00857861153781414</v>
+        <v>0.1642706841230392</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01573598943650723</v>
+        <v>1.437433481216431</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01215729396790266</v>
+        <v>0.8008522987365723</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_2</t>
+          <t>model_4_4_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9942825212926296</v>
+        <v>0.9388285681740923</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7534829157828535</v>
+        <v>0.7677876095514603</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9924223836842612</v>
+        <v>0.8136943215428455</v>
       </c>
       <c r="E4" t="n">
-        <v>0.998162044509429</v>
+        <v>0.361575443981959</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9972312761361629</v>
+        <v>0.5044006200240704</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02399503439664841</v>
+        <v>0.2567234039306641</v>
       </c>
       <c r="H4" t="n">
-        <v>1.648460865020752</v>
+        <v>1.552805304527283</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01196502428501844</v>
+        <v>0.1646801680326462</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01478423178195953</v>
+        <v>1.435248851776123</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01337462849915028</v>
+        <v>0.7999647855758667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_3</t>
+          <t>model_4_4_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9950558033635584</v>
+        <v>0.938861346225519</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7522075343813323</v>
+        <v>0.7677342882794267</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9901888890906976</v>
+        <v>0.8131785277712367</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9982156501529855</v>
+        <v>0.3626396381882021</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9969108644081425</v>
+        <v>0.5050005951578322</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02074973657727242</v>
+        <v>0.2565858364105225</v>
       </c>
       <c r="H5" t="n">
-        <v>1.656989336013794</v>
+        <v>1.553161859512329</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01549170352518559</v>
+        <v>0.1651360988616943</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01435303688049316</v>
+        <v>1.432856559753418</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01492241211235523</v>
+        <v>0.7989963293075562</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_4</t>
+          <t>model_4_4_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9956434922022963</v>
+        <v>0.9388910564919488</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7510078015891397</v>
+        <v>0.7676716296909194</v>
       </c>
       <c r="D6" t="n">
-        <v>0.987934419459974</v>
+        <v>0.8126032275451511</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9982195833118498</v>
+        <v>0.3638036911190667</v>
       </c>
       <c r="F6" t="n">
-        <v>0.996545693083456</v>
+        <v>0.5056537181432427</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01828332990407944</v>
+        <v>0.2564611434936523</v>
       </c>
       <c r="H6" t="n">
-        <v>1.665011882781982</v>
+        <v>1.5535808801651</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01905150152742863</v>
+        <v>0.1656446009874344</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0143213989213109</v>
+        <v>1.43023955821991</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01668641343712807</v>
+        <v>0.7979421615600586</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_5</t>
+          <t>model_4_4_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9960844430808147</v>
+        <v>0.9389159166231896</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7498863556314018</v>
+        <v>0.7675978688855511</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9857085306188776</v>
+        <v>0.8119620824544777</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9981861567440001</v>
+        <v>0.3650758285006991</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9961540679847865</v>
+        <v>0.5063640942243878</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0164327546954155</v>
+        <v>0.256356805562973</v>
       </c>
       <c r="H7" t="n">
-        <v>1.672511100769043</v>
+        <v>1.554074168205261</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02256617322564125</v>
+        <v>0.16621133685112</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01459027640521526</v>
+        <v>1.427379608154297</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01857820153236389</v>
+        <v>0.7967954874038696</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_6</t>
+          <t>model_4_4_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9964098585372535</v>
+        <v>0.9389334408599024</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7488435676441804</v>
+        <v>0.7675107980467657</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9835467971479291</v>
+        <v>0.8112466669787513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9981253805707416</v>
+        <v>0.3664627018368766</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9957501559479356</v>
+        <v>0.5071340536820708</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01506705489009619</v>
+        <v>0.2562832534313202</v>
       </c>
       <c r="H8" t="n">
-        <v>1.679484248161316</v>
+        <v>1.554656386375427</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0259795393794775</v>
+        <v>0.1668437123298645</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01507915090769529</v>
+        <v>1.424261927604675</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02052934467792511</v>
+        <v>0.7955526113510132</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_7</t>
+          <t>model_4_4_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9966447231641097</v>
+        <v>0.9389406370933904</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7478780589339453</v>
+        <v>0.7674077552374057</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9814737764727485</v>
+        <v>0.8104475905536476</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9980452298858162</v>
+        <v>0.3679734880154711</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9953446153385249</v>
+        <v>0.5079672309691576</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01408137939870358</v>
+        <v>0.2562530636787415</v>
       </c>
       <c r="H9" t="n">
-        <v>1.685940504074097</v>
+        <v>1.555345416069031</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02925283089280128</v>
+        <v>0.1675500422716141</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01572387106716633</v>
+        <v>1.420865535736084</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02248835377395153</v>
+        <v>0.794207751750946</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_8</t>
+          <t>model_4_4_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9968090205335249</v>
+        <v>0.9389336655789298</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7469873404364425</v>
+        <v>0.7672856116718934</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9795055525033894</v>
+        <v>0.8095544900474612</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9979520772688613</v>
+        <v>0.369616812117988</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9949453788951571</v>
+        <v>0.5088671400141317</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01339185796678066</v>
+        <v>0.2562823295593262</v>
       </c>
       <c r="H10" t="n">
-        <v>1.691896915435791</v>
+        <v>1.556162238121033</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03236064687371254</v>
+        <v>0.1683394759893417</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01647317595779896</v>
+        <v>1.417171001434326</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02441690862178802</v>
+        <v>0.7927551865577698</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_9</t>
+          <t>model_4_4_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9969186647123031</v>
+        <v>0.9389076066027366</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7461681179637877</v>
+        <v>0.7671404611738147</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9776515153517853</v>
+        <v>0.8085555110579544</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9978509239272011</v>
+        <v>0.3714013340245319</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9945581329015843</v>
+        <v>0.5098362829958503</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0129317045211792</v>
+        <v>0.256391704082489</v>
       </c>
       <c r="H11" t="n">
-        <v>1.697374939918518</v>
+        <v>1.557132720947266</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03528816625475883</v>
+        <v>0.169222503900528</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01728683710098267</v>
+        <v>1.413159132003784</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02628754451870918</v>
+        <v>0.7911908626556396</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_10</t>
+          <t>model_4_4_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9969863595961368</v>
+        <v>0.9388563656381791</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7454166567892238</v>
+        <v>0.7669676446787201</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9759166164401193</v>
+        <v>0.807435129741881</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9977456646528547</v>
+        <v>0.3733375977108215</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9941869543124515</v>
+        <v>0.5108780488321769</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01264760363847017</v>
+        <v>0.2566067278385162</v>
       </c>
       <c r="H12" t="n">
-        <v>1.702399969100952</v>
+        <v>1.558288335800171</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0380275622010231</v>
+        <v>0.1702128201723099</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01813352853059769</v>
+        <v>1.408806324005127</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02808056399226189</v>
+        <v>0.7895092964172363</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_11</t>
+          <t>model_4_4_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9970221417578383</v>
+        <v>0.93877212592894</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7447288776006645</v>
+        <v>0.7667614117143454</v>
       </c>
       <c r="D13" t="n">
-        <v>0.974301862684759</v>
+        <v>0.8061775858659743</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9976392329392306</v>
+        <v>0.3754348264628621</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9938344324298714</v>
+        <v>0.5119940352208576</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01249743346124887</v>
+        <v>0.2569602727890015</v>
       </c>
       <c r="H13" t="n">
-        <v>1.706999182701111</v>
+        <v>1.559667587280273</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04057725518941879</v>
+        <v>0.1713243871927261</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01898964866995811</v>
+        <v>1.404091477394104</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0297834575176239</v>
+        <v>0.7877079248428345</v>
       </c>
     </row>
     <row r="14">
@@ -936,478 +936,478 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9970339583338304</v>
+        <v>0.9386453323843074</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7441006397109333</v>
+        <v>0.76651474336645</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9728055185092511</v>
+        <v>0.8047623349763328</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9975339070077364</v>
+        <v>0.3777047689507537</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9935021733387674</v>
+        <v>0.5131872519594596</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01244784239679575</v>
+        <v>0.2574924230575562</v>
       </c>
       <c r="H14" t="n">
-        <v>1.71120023727417</v>
+        <v>1.561316967010498</v>
       </c>
       <c r="I14" t="n">
-        <v>0.04293997213244438</v>
+        <v>0.1725753843784332</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01983687281608582</v>
+        <v>1.398988366127014</v>
       </c>
       <c r="K14" t="n">
-        <v>0.03138847276568413</v>
+        <v>0.7857819795608521</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_13</t>
+          <t>model_4_4_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9970280759517672</v>
+        <v>0.9384640246694409</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7435277134130074</v>
+        <v>0.7662191340799255</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9714243003474853</v>
+        <v>0.8031664320735856</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9974312763001064</v>
+        <v>0.3801600670086559</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9931910007564559</v>
+        <v>0.5144601159131096</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01247252896428108</v>
+        <v>0.2582533359527588</v>
       </c>
       <c r="H15" t="n">
-        <v>1.715031385421753</v>
+        <v>1.563293695449829</v>
       </c>
       <c r="I15" t="n">
-        <v>0.04512090981006622</v>
+        <v>0.1739860326051712</v>
       </c>
       <c r="J15" t="n">
-        <v>0.02066241949796677</v>
+        <v>1.393468737602234</v>
       </c>
       <c r="K15" t="n">
-        <v>0.03289162740111351</v>
+        <v>0.7837273478507996</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_14</t>
+          <t>model_4_4_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9970093756745396</v>
+        <v>0.9382133593415802</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7430060595520576</v>
+        <v>0.7658640617879531</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9701534862686194</v>
+        <v>0.801361991005895</v>
       </c>
       <c r="E16" t="n">
-        <v>0.997332501194521</v>
+        <v>0.3828158248859288</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9929010527712966</v>
+        <v>0.5158154848564591</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01255101058632135</v>
+        <v>0.259305328130722</v>
       </c>
       <c r="H16" t="n">
-        <v>1.718519687652588</v>
+        <v>1.565668106079102</v>
       </c>
       <c r="I16" t="n">
-        <v>0.04712752252817154</v>
+        <v>0.1755810230970383</v>
       </c>
       <c r="J16" t="n">
-        <v>0.02145695127546787</v>
+        <v>1.387498259544373</v>
       </c>
       <c r="K16" t="n">
-        <v>0.03429225459694862</v>
+        <v>0.7815396189689636</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_15</t>
+          <t>model_4_4_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.996981683697147</v>
+        <v>0.9378749810111621</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7425316578406755</v>
+        <v>0.7654366042750907</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9689872836886491</v>
+        <v>0.7993170319474452</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9972383913023368</v>
+        <v>0.3856896664162605</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9926320890323632</v>
+        <v>0.5172568567143245</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01266722660511732</v>
+        <v>0.2607254087924957</v>
       </c>
       <c r="H17" t="n">
-        <v>1.721692085266113</v>
+        <v>1.56852650642395</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04896894842386246</v>
+        <v>0.177388608455658</v>
       </c>
       <c r="J17" t="n">
-        <v>0.02221395634114742</v>
+        <v>1.381037473678589</v>
       </c>
       <c r="K17" t="n">
-        <v>0.03559150919318199</v>
+        <v>0.779213011264801</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_16</t>
+          <t>model_4_4_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9969479604544954</v>
+        <v>0.9374260581962801</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7421007392791987</v>
+        <v>0.7649206198258158</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9679196906272753</v>
+        <v>0.796992338941052</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9971494477375586</v>
+        <v>0.3888021028885785</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9923835600389969</v>
+        <v>0.5187878083266738</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01280875783413649</v>
+        <v>0.2626094222068787</v>
       </c>
       <c r="H18" t="n">
-        <v>1.724573612213135</v>
+        <v>1.571976780891418</v>
       </c>
       <c r="I18" t="n">
-        <v>0.05065467953681946</v>
+        <v>0.1794434636831284</v>
       </c>
       <c r="J18" t="n">
-        <v>0.02292940393090248</v>
+        <v>1.374040365219116</v>
       </c>
       <c r="K18" t="n">
-        <v>0.03679205849766731</v>
+        <v>0.7767418622970581</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_17</t>
+          <t>model_4_4_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9969104815940879</v>
+        <v>0.9368382220901055</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7417096978889746</v>
+        <v>0.7642962004649803</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9669443377192203</v>
+        <v>0.7943428502070625</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9970659353424302</v>
+        <v>0.3921771221376318</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9921546239578333</v>
+        <v>0.5204127189405293</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01296604890376329</v>
+        <v>0.2650764584541321</v>
       </c>
       <c r="H19" t="n">
-        <v>1.727188587188721</v>
+        <v>1.576152324676514</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0521947555243969</v>
+        <v>0.1817854195833206</v>
       </c>
       <c r="J19" t="n">
-        <v>0.02360116690397263</v>
+        <v>1.366452932357788</v>
       </c>
       <c r="K19" t="n">
-        <v>0.03789795935153961</v>
+        <v>0.7741190195083618</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_18</t>
+          <t>model_4_4_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9968709671915748</v>
+        <v>0.9360764996188543</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7413551614654549</v>
+        <v>0.7635382397096336</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9660547887537624</v>
+        <v>0.7913178470621287</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9969879407180327</v>
+        <v>0.3958450536287008</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9919442976067675</v>
+        <v>0.5221387092751893</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0131318811327219</v>
+        <v>0.268273264169693</v>
       </c>
       <c r="H20" t="n">
-        <v>1.729559183120728</v>
+        <v>1.581220865249634</v>
       </c>
       <c r="I20" t="n">
-        <v>0.05359935015439987</v>
+        <v>0.1844592839479446</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0242285430431366</v>
+        <v>1.358206987380981</v>
       </c>
       <c r="K20" t="n">
-        <v>0.03891396522521973</v>
+        <v>0.7713330388069153</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_19</t>
+          <t>model_4_4_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9968307213651546</v>
+        <v>0.9350970699859004</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7410340128657277</v>
+        <v>0.7626150297630443</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9652447868955829</v>
+        <v>0.7878591813497285</v>
       </c>
       <c r="E21" t="n">
-        <v>0.996915455427374</v>
+        <v>0.3998371241338167</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9917515581141206</v>
+        <v>0.5239718199209777</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01330078393220901</v>
+        <v>0.2723836898803711</v>
       </c>
       <c r="H21" t="n">
-        <v>1.731706857681274</v>
+        <v>1.58739447593689</v>
       </c>
       <c r="I21" t="n">
-        <v>0.05487833917140961</v>
+        <v>0.1875164806842804</v>
       </c>
       <c r="J21" t="n">
-        <v>0.02481160312891006</v>
+        <v>1.349232316017151</v>
       </c>
       <c r="K21" t="n">
-        <v>0.03984501585364342</v>
+        <v>0.7683742046356201</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_20</t>
+          <t>model_4_4_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9967907066031978</v>
+        <v>0.933845751638981</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7407432537178096</v>
+        <v>0.7614866954504232</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9645082177980063</v>
+        <v>0.7839106784167784</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9968483421730084</v>
+        <v>0.4041911812728783</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9915752960052521</v>
+        <v>0.5259225986128776</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01346871815621853</v>
+        <v>0.277635246515274</v>
       </c>
       <c r="H22" t="n">
-        <v>1.733650922775269</v>
+        <v>1.594939589500427</v>
       </c>
       <c r="I22" t="n">
-        <v>0.05604137480258942</v>
+        <v>0.191006675362587</v>
       </c>
       <c r="J22" t="n">
-        <v>0.02535145170986652</v>
+        <v>1.339444160461426</v>
       </c>
       <c r="K22" t="n">
-        <v>0.04069646820425987</v>
+        <v>0.765225350856781</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_21</t>
+          <t>model_4_4_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9967516323157084</v>
+        <v>0.9322537249674593</v>
       </c>
       <c r="C23" t="n">
-        <v>0.740480191774419</v>
+        <v>0.7601019427325328</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9638391475841518</v>
+        <v>0.7794192588003477</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9967864540562525</v>
+        <v>0.4089322427534789</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9914144301030202</v>
+        <v>0.5279943335312569</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0136327026411891</v>
+        <v>0.2843166291713715</v>
       </c>
       <c r="H23" t="n">
-        <v>1.735410094261169</v>
+        <v>1.604199409484863</v>
       </c>
       <c r="I23" t="n">
-        <v>0.05709783360362053</v>
+        <v>0.194976732134819</v>
       </c>
       <c r="J23" t="n">
-        <v>0.02584927156567574</v>
+        <v>1.328785538673401</v>
       </c>
       <c r="K23" t="n">
-        <v>0.04147354513406754</v>
+        <v>0.7618812322616577</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_22</t>
+          <t>model_4_4_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9967139479604427</v>
+        <v>0.9302339085352976</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7402423229793593</v>
+        <v>0.7583949791327311</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9632319132724841</v>
+        <v>0.774355116171256</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9967294765901074</v>
+        <v>0.4140658589522757</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9912677469550994</v>
+        <v>0.5301828055485409</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01379085704684258</v>
+        <v>0.2927933633327484</v>
       </c>
       <c r="H24" t="n">
-        <v>1.737000703811646</v>
+        <v>1.61561393737793</v>
       </c>
       <c r="I24" t="n">
-        <v>0.05805665999650955</v>
+        <v>0.1994530558586121</v>
       </c>
       <c r="J24" t="n">
-        <v>0.02630758844316006</v>
+        <v>1.3172447681427</v>
       </c>
       <c r="K24" t="n">
-        <v>0.04218211770057678</v>
+        <v>0.7583487629890442</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_23</t>
+          <t>model_4_4_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9966780329482252</v>
+        <v>0.9276728956523357</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7400273755350691</v>
+        <v>0.7562807411304768</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9626815091523695</v>
+        <v>0.7687401706662309</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9966772197420697</v>
+        <v>0.4195261138645332</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9911342943742454</v>
+        <v>0.5324478115561531</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01394158508628607</v>
+        <v>0.3035413920879364</v>
       </c>
       <c r="H25" t="n">
-        <v>1.738438129425049</v>
+        <v>1.629751920700073</v>
       </c>
       <c r="I25" t="n">
-        <v>0.05892574414610863</v>
+        <v>0.2044162452220917</v>
       </c>
       <c r="J25" t="n">
-        <v>0.02672793343663216</v>
+        <v>1.304969429969788</v>
       </c>
       <c r="K25" t="n">
-        <v>0.04282677546143532</v>
+        <v>0.7546927928924561</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_4_4_24</t>
+          <t>model_4_4_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9966440743640181</v>
+        <v>0.924417763925831</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7398331661550628</v>
+        <v>0.7536475410181629</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9621830605994081</v>
+        <v>0.7626939332858935</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9966293598077098</v>
+        <v>0.4250741329166602</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9910129650901864</v>
+        <v>0.5346558715189138</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0140841007232666</v>
+        <v>0.3172024488449097</v>
       </c>
       <c r="H26" t="n">
-        <v>1.739736795425415</v>
+        <v>1.64736008644104</v>
       </c>
       <c r="I26" t="n">
-        <v>0.05971279367804527</v>
+        <v>0.2097606658935547</v>
       </c>
       <c r="J26" t="n">
-        <v>0.02711291238665581</v>
+        <v>1.292496800422668</v>
       </c>
       <c r="K26" t="n">
-        <v>0.04341287165880203</v>
+        <v>0.7511287331581116</v>
       </c>
     </row>
   </sheetData>
